--- a/medicine/Enfance/Claire_Cantais/Claire_Cantais.xlsx
+++ b/medicine/Enfance/Claire_Cantais/Claire_Cantais.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Claire Cantais est une auteure et illustratrice française.
 </t>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle a fait ses études aux Beaux-Arts de Paris[1]. Elle a ensuite été « photographe plasticienne[2] », puis, devenue mère, selon ses termes : « j’ai eu envie d’écrire des livres pour mes enfants[2] ». Elle publie son premier ouvrage en 2005, en tant qu'auteure et illustratrice : Petit Lion[3].
-En 2024 paraît l'album jeunesse qu'elle écrit et illustre Ton cœur bat au rythme de la Terre. Pour Télérama : « Guidée par une curieuse elfe bleue à la chevelure flamboyante, une jeune fille quitte le désœuvrement d’un trajet en TGV pour une merveilleuse escapade au grand air.  [...] Les couleurs vives et mates s’opposent ou se superposent, l’obscurité éblouit comme le soleil. Un mélange de contemplation et d’agitation crépite dans cet album singulier[4] ».
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle a fait ses études aux Beaux-Arts de Paris. Elle a ensuite été « photographe plasticienne », puis, devenue mère, selon ses termes : « j’ai eu envie d’écrire des livres pour mes enfants ». Elle publie son premier ouvrage en 2005, en tant qu'auteure et illustratrice : Petit Lion.
+En 2024 paraît l'album jeunesse qu'elle écrit et illustre Ton cœur bat au rythme de la Terre. Pour Télérama : « Guidée par une curieuse elfe bleue à la chevelure flamboyante, une jeune fille quitte le désœuvrement d’un trajet en TGV pour une merveilleuse escapade au grand air.  [...] Les couleurs vives et mates s’opposent ou se superposent, l’obscurité éblouit comme le soleil. Un mélange de contemplation et d’agitation crépite dans cet album singulier ».
 </t>
         </is>
       </c>
@@ -545,8 +559,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Auteure-illustratrice
-Petit Lion, L'Atelier du poisson soluble, 2005
+          <t>Auteure-illustratrice</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Petit Lion, L'Atelier du poisson soluble, 2005
 Victoire s’entête, L'Atelier du poisson soluble/éditions du musée du Louvre, 2006
 Raoul la terreur, L'Atelier du poisson soluble, 2008
 Parfaiteville, L'Atelier du poisson soluble, 2008
@@ -555,55 +574,52 @@
 Votez Victorine, L'Atelier du poisson soluble, 2014
 Mon super cahier d’activités antisexiste, La Ville Brûle, 2015
 Big bang pop !, l'Atelier du poisson soluble, 2018
-Ton cœur bat au rythme de la terre[4], Éditions courtes et longues, 2024
-Illustratrice
-Chimères, textes de Michèle Sigal, Éditions de l’Œil, 2005
+Ton cœur bat au rythme de la terre, Éditions courtes et longues, 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Claire_Cantais</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Claire_Cantais</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Illustratrice</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Chimères, textes de Michèle Sigal, Éditions de l’Œil, 2005
 Comme chien et chat, textes d'Ehnri Meunier, L'Édune, 2010
-On n’est pas des poupées[5], textes de Delphine Beauvois, Éditions La ville brûle, 2013
-Les bruits chez qui j’habite[6], textes de Séverine Vidal, éd. L'Edune, 2014
+On n’est pas des poupées, textes de Delphine Beauvois, Éditions La ville brûle, 2013
+Les bruits chez qui j’habite, textes de Séverine Vidal, éd. L'Edune, 2014
 On n’est pas des super héros, textes de Delphine Beauvois, Éditions La ville brûle, 2014
 On n’est pas si différents, textes de Sandra Kollender, La Ville brûle, 2015
 Ni poupées ni super héros, textes de Delphine Beauvois, recueil, Éditions La ville brûle, 2015
 On n'est pas des moutons, textes de Yann Fastier, La Ville Brûle, 2016
 Aux Antipodes, d'Alain Schneider — livre-CD, les édtions des Braques, 2016
-On n'est pas au centre du monde, textes de Jean-Loïc Le Quellec, La Ville Brûle, 2018
-Auteure
-Avec de l’ail et du beurre, Syros, 2012 — roman jeunesse
-Jours sauvages, Syros, 2020
-Cafard académie, texte de Claire Cantais, illustrations de Martina Motzo, Éditions Sarbacane, 2022
-Les vies d'Avril, Syros, 2023</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Claire_Cantais</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Claire_Cantais</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Expositions</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>« Coupé/Collé »
-« Vas-y Rosalie ! »
-« Cool Raoul » (2011)</t>
+On n'est pas au centre du monde, textes de Jean-Loïc Le Quellec, La Ville Brûle, 2018</t>
         </is>
       </c>
     </row>
@@ -628,12 +644,87 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Auteure</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Avec de l’ail et du beurre, Syros, 2012 — roman jeunesse
+Jours sauvages, Syros, 2020
+Cafard académie, texte de Claire Cantais, illustrations de Martina Motzo, Éditions Sarbacane, 2022
+Les vies d'Avril, Syros, 2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Claire_Cantais</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Claire_Cantais</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Expositions</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>« Coupé/Collé »
+« Vas-y Rosalie ! »
+« Cool Raoul » (2011)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Claire_Cantais</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Claire_Cantais</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Affiches</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2018 : Deux affiches pour le 14e Salon du livre jeunesse en Erdre et Gesvres[2], sur le thème : « Résistances – Je peux dire Oui, mais je sais dire Non ! » ; avril 2018</t>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>2018 : Deux affiches pour le 14e Salon du livre jeunesse en Erdre et Gesvres, sur le thème : « Résistances – Je peux dire Oui, mais je sais dire Non ! » ; avril 2018</t>
         </is>
       </c>
     </row>
